--- a/media/profile/generated_files/Invigilators_List-admin.xlsx
+++ b/media/profile/generated_files/Invigilators_List-admin.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -11768,7 +11768,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -16760,7 +16760,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17912,7 +17912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18392,7 +18392,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -18584,7 +18584,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -18680,7 +18680,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -19160,7 +19160,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -19256,7 +19256,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -19352,7 +19352,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -19416,7 +19416,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -19512,7 +19512,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -19640,7 +19640,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -19704,7 +19704,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -19832,7 +19832,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -19928,7 +19928,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -20088,7 +20088,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -20120,7 +20120,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -20312,7 +20312,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -20504,7 +20504,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -20600,7 +20600,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -20696,7 +20696,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -21080,7 +21080,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -21144,7 +21144,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
